--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Epgn-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Epgn-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Epgn</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Epgn</t>
-  </si>
-  <si>
-    <t>Egfr</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.103933</v>
+        <v>0.2901346666666667</v>
       </c>
       <c r="H2">
-        <v>0.311799</v>
+        <v>0.870404</v>
       </c>
       <c r="I2">
-        <v>0.5998153224642908</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5998153224642909</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N2">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q2">
-        <v>0.1927511970316667</v>
+        <v>0.3977387480128889</v>
       </c>
       <c r="R2">
-        <v>1.734760773285</v>
+        <v>3.579648732116</v>
       </c>
       <c r="S2">
-        <v>0.009905180164464834</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="T2">
-        <v>0.009905180164464837</v>
+        <v>0.01103063309339269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.103933</v>
+        <v>0.2901346666666667</v>
       </c>
       <c r="H3">
-        <v>0.311799</v>
+        <v>0.870404</v>
       </c>
       <c r="I3">
-        <v>0.5998153224642908</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5998153224642909</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P3">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q3">
-        <v>9.656802111136333</v>
+        <v>26.95749243821022</v>
       </c>
       <c r="R3">
-        <v>86.91121900022699</v>
+        <v>242.617431943892</v>
       </c>
       <c r="S3">
-        <v>0.4962478376083714</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="T3">
-        <v>0.4962478376083716</v>
+        <v>0.7476219244149904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.103933</v>
+        <v>0.2901346666666667</v>
       </c>
       <c r="H4">
-        <v>0.311799</v>
+        <v>0.870404</v>
       </c>
       <c r="I4">
-        <v>0.5998153224642908</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5998153224642909</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N4">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q4">
-        <v>1.805783042391667</v>
+        <v>8.622362449178667</v>
       </c>
       <c r="R4">
-        <v>16.252047381525</v>
+        <v>77.601262042608</v>
       </c>
       <c r="S4">
-        <v>0.09279634393080498</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="T4">
-        <v>0.09279634393080501</v>
+        <v>0.2391271080585153</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.103933</v>
+        <v>0.2901346666666667</v>
       </c>
       <c r="H5">
-        <v>0.311799</v>
+        <v>0.870404</v>
       </c>
       <c r="I5">
-        <v>0.5998153224642908</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5998153224642909</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N5">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O5">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P5">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q5">
-        <v>0.016851280888</v>
+        <v>0.08006005005466665</v>
       </c>
       <c r="R5">
-        <v>0.151661527992</v>
+        <v>0.720540450492</v>
       </c>
       <c r="S5">
-        <v>0.0008659607606494961</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="T5">
-        <v>0.0008659607606494964</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.069342</v>
-      </c>
-      <c r="H6">
-        <v>0.208026</v>
-      </c>
-      <c r="I6">
-        <v>0.4001846775357091</v>
-      </c>
-      <c r="J6">
-        <v>0.4001846775357092</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.854571666666667</v>
-      </c>
-      <c r="N6">
-        <v>5.563715</v>
-      </c>
-      <c r="O6">
-        <v>0.01651371646154392</v>
-      </c>
-      <c r="P6">
-        <v>0.01651371646154392</v>
-      </c>
-      <c r="Q6">
-        <v>0.12859970851</v>
-      </c>
-      <c r="R6">
-        <v>1.15739737659</v>
-      </c>
-      <c r="S6">
-        <v>0.006608536297079085</v>
-      </c>
-      <c r="T6">
-        <v>0.006608536297079087</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.069342</v>
-      </c>
-      <c r="H7">
-        <v>0.208026</v>
-      </c>
-      <c r="I7">
-        <v>0.4001846775357091</v>
-      </c>
-      <c r="J7">
-        <v>0.4001846775357092</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>92.91372433333333</v>
-      </c>
-      <c r="N7">
-        <v>278.741173</v>
-      </c>
-      <c r="O7">
-        <v>0.8273343794712995</v>
-      </c>
-      <c r="P7">
-        <v>0.8273343794712996</v>
-      </c>
-      <c r="Q7">
-        <v>6.442823472722</v>
-      </c>
-      <c r="R7">
-        <v>57.985411254498</v>
-      </c>
-      <c r="S7">
-        <v>0.331086541862928</v>
-      </c>
-      <c r="T7">
-        <v>0.3310865418629281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.069342</v>
-      </c>
-      <c r="H8">
-        <v>0.208026</v>
-      </c>
-      <c r="I8">
-        <v>0.4001846775357091</v>
-      </c>
-      <c r="J8">
-        <v>0.4001846775357092</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>17.37449166666667</v>
-      </c>
-      <c r="N8">
-        <v>52.123475</v>
-      </c>
-      <c r="O8">
-        <v>0.1547081917640233</v>
-      </c>
-      <c r="P8">
-        <v>0.1547081917640233</v>
-      </c>
-      <c r="Q8">
-        <v>1.20478200115</v>
-      </c>
-      <c r="R8">
-        <v>10.84303801035</v>
-      </c>
-      <c r="S8">
-        <v>0.06191184783321832</v>
-      </c>
-      <c r="T8">
-        <v>0.06191184783321833</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.069342</v>
-      </c>
-      <c r="H9">
-        <v>0.208026</v>
-      </c>
-      <c r="I9">
-        <v>0.4001846775357091</v>
-      </c>
-      <c r="J9">
-        <v>0.4001846775357092</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.162136</v>
-      </c>
-      <c r="N9">
-        <v>0.4864080000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.001443712303133186</v>
-      </c>
-      <c r="P9">
-        <v>0.001443712303133187</v>
-      </c>
-      <c r="Q9">
-        <v>0.011242834512</v>
-      </c>
-      <c r="R9">
-        <v>0.101185510608</v>
-      </c>
-      <c r="S9">
-        <v>0.0005777515424836901</v>
-      </c>
-      <c r="T9">
-        <v>0.0005777515424836903</v>
+        <v>0.002220334433101458</v>
       </c>
     </row>
   </sheetData>
